--- a/trajectory annotation/example output/crossings_data.xlsx
+++ b/trajectory annotation/example output/crossings_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,19 +462,70 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>71.48233903548181</v>
+        <v>39.49289186392966</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>1.240345600564772</v>
+        <v>-9.094428599198746</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.109368770337965</v>
+        <v>-0.4198436009882236</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>18.57456876767228</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>-9.833736778012646</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1.574217960666493</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>54.59953507816999</v>
+      </c>
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>-11.58101202804842</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1.408887347660113</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>22.05444563360182</v>
+      </c>
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>-4.114206486302029</v>
+      </c>
+      <c r="E5" t="n">
+        <v>2.853177693957766</v>
       </c>
     </row>
   </sheetData>
